--- a/source/TEAM4 05-테스트케이스, 통합 테스트 시나리오/신소연.xlsx
+++ b/source/TEAM4 05-테스트케이스, 통합 테스트 시나리오/신소연.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team4\source\TEAM4 05 - 단위테스트 시나리오 및 통합테스트 시나리오\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team4\source\TEAM4 05-테스트케이스, 통합 테스트 시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E9213E-FF61-44A3-AA05-396CFC79C466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E329A0C-2C49-4DAD-8760-5F561FA4F942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +392,19 @@
     <t>언로딩 후 팔레트에 적재하는데 문제가 있음
 Pallet_Master와 Goods_In_History
 DB 설계에 문제가 있는듯함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_In_History에 칼럼을 추가하고
+팔레트 관련 화면을 모두 변경함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1879,7 +1892,7 @@
   <dimension ref="B2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2054,6 +2067,18 @@
       </c>
       <c r="K5" s="8" t="s">
         <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="12">
+        <v>43881</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
